--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC84-TORNILLERA 4.5-6.5 TIT. #2.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC84-TORNILLERA 4.5-6.5 TIT. #2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA3CEEA-6C29-4B6C-B1CC-7A6756897266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C0881A-15E6-4716-A5F0-7AE50A8DA960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAIRO" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -955,10 +966,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1363,9 +1374,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1413,7 +1424,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1497,14 +1508,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1778,9 +1789,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1818,7 +1829,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1924,7 +1935,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2066,7 +2077,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2079,8 +2090,8 @@
   </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2449,7 +2460,7 @@
         <v>176</v>
       </c>
       <c r="D32" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32" s="3"/>
     </row>
@@ -2731,7 +2742,7 @@
       <c r="C51" s="82"/>
       <c r="D51" s="54">
         <f>SUM(D25:D50)</f>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E51" s="3"/>
     </row>
@@ -3811,7 +3822,7 @@
       <c r="B7" s="94"/>
       <c r="C7" s="49">
         <f ca="1">NOW()</f>
-        <v>45362.591372685187</v>
+        <v>45401.667143634259</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>90</v>
